--- a/Unity/Assets/Config/Excel/ActionConfig.xlsx
+++ b/Unity/Assets/Config/Excel/ActionConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolSoft\U3D\Project\ETs\Raw_ET7.2_Test_5\Unity\Assets\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolSoft\U3D\Project\ETs\ET-BattleSystem\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9653C700-8607-4E3E-BAD5-762248B8B578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177F275D-E14F-4F9D-A5FC-DB65A425A0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="10656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1932" yWindow="1500" windowWidth="17280" windowHeight="10656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionProto" sheetId="1" r:id="rId1"/>
@@ -491,7 +491,7 @@
   <dimension ref="C2:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>

--- a/Unity/Assets/Config/Excel/ActionConfig.xlsx
+++ b/Unity/Assets/Config/Excel/ActionConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolSoft\U3D\Project\ETs\ET-BattleSystem\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177F275D-E14F-4F9D-A5FC-DB65A425A0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644B2784-3C9F-4785-8D19-AD8B818E2FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1932" yWindow="1500" windowWidth="17280" windowHeight="10656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Id</t>
   </si>
@@ -48,59 +48,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>火球CastId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能范围, 技能伤害, 灼烧BuffId, 火球CastId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>行为名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreatFireBallAction</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FireBallCastAction</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BurnBuffAction</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buff时长ms, 灼烧伤害, 灼烧BuffId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"0"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"10","50","0","0"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1000","10","0"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>NullBuffAction</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试用的BuffAction</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>NullCastAction</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试用的技能Action</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -488,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:K10"/>
+  <dimension ref="C2:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C6" sqref="C6:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -523,7 +471,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>2</v>
@@ -568,72 +516,16 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="3:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="1">
-        <v>2000</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="3:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="3:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="3:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="1">
-        <v>1001</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>20</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
